--- a/data/trans_bre/P9_4-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P9_4-Urba-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -586,17 +586,17 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>11,97%</t>
+          <t>11,99%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>90,94%</t>
+          <t>99,8%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 1,27</t>
+          <t>-1,1; 1,24</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 1,92</t>
+          <t>-0,46; 2,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-66,82; 251,32</t>
+          <t>-65,86; 215,28</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-62,4; 818,11</t>
+          <t>-54,63; 818,7</t>
         </is>
       </c>
     </row>
@@ -646,12 +646,12 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>139,69%</t>
+          <t>139,68%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -669,12 +669,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 1,26</t>
+          <t>-0,18; 1,08</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,02</t>
+          <t>0,0; 2,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,62</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>222,89%</t>
+          <t>223,08%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-34,63%</t>
+          <t>44,04%</t>
         </is>
       </c>
     </row>
@@ -729,12 +729,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 5,74</t>
+          <t>-1,03; 5,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-12,09; 3,54</t>
+          <t>-3,19; 5,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -766,17 +766,17 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>57,25%</t>
+          <t>57,27%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>35,74%</t>
+          <t>118,73%</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,29 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 1,22</t>
+          <t>-0,28; 1,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 1,21</t>
+          <t>-0,12; 1,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-31,8; 300,35</t>
+          <t>-34,77; 302,38</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-65,29; 346,09</t>
+          <t>-24,44; 677,52</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P9_4-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P9_4-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,121 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,13</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,71</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>11,99%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>99,8%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>0.133821793503713</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.6438819258442423</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>0.1199168528660915</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.9172260279402217</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-1,1; 1,24</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-0,46; 2,09</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-65,86; 215,28</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-54,63; 818,7</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-1.099850150799541</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.4800195511115563</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>-0.6586360897902024</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.5364086351068749</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>1.242507156103472</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>1.971240612517275</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>2.152838966316225</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>8.295236362425694</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,24</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,64</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>139,68%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-0,18; 1,08</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 2,26</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+      <c r="C7" s="5" t="n">
+        <v>0.2403275096618095</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.5885343054351846</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>1.396841874283068</v>
+      </c>
+      <c r="F7" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>2,07</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,9</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>223,08%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>44,04%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-0.1792778055214932</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6" t="inlineStr"/>
+      <c r="F8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-1,03; 5,73</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-3,19; 5,38</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>1.078169099313224</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>2.063117549407165</v>
+      </c>
+      <c r="E9" s="6" t="inlineStr"/>
+      <c r="F9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,57 +710,117 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>0,41</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,7</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>57,27%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>118,73%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>2.067196243608581</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-1.665700652455413</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>2.230839154780904</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>-0.3679940475425454</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-0,28; 1,19</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-0,12; 1,67</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-34,77; 302,38</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-24,44; 677,52</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-1.032020559983926</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-11.34527512721045</v>
+      </c>
+      <c r="E11" s="6" t="inlineStr"/>
+      <c r="F11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>5.730926645324646</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>3.696002441513671</v>
+      </c>
+      <c r="E12" s="6" t="inlineStr"/>
+      <c r="F12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>0.4085251192873386</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.3357302630481195</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.5727135049822045</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.3768008803847099</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-0.2786861036893095</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.9979750442165524</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.3476708602022502</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.6061212786492347</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>1.191445807588292</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>1.263338368270709</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>3.023780963143355</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>3.639468726661952</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -817,13 +828,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
